--- a/public/data/Products.xlsx
+++ b/public/data/Products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeaston/Desktop/RCG Stuff/DEMOS/eBikes/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Salesforce\e-bikes-demo\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF66AC8-1A67-A14B-BCD4-80C10F646D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B89A465-8D52-4F38-A08A-186B794DA3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="8060" windowWidth="19740" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1270,23 +1270,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="2"/>
-    <col min="4" max="4" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.875" style="2"/>
+    <col min="4" max="4" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="2"/>
-    <col min="7" max="7" width="15.1640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="10.875" style="2"/>
+    <col min="7" max="7" width="15.125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1403,8 +1403,12 @@
       <c r="S2" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="T2" s="2" t="str">
+        <f>"{id: " &amp; TEXT(ROW(A1), 0) &amp; ", name: '" &amp; C2  &amp; "', price: " &amp; TEXT(E2, 0) &amp; ", imageSrc: '" &amp; M2 &amp; "'},"</f>
+        <v>{id: 1, name: 'FUSE X1', price: 2500, imageSrc: 'https://s3-us-west-2.amazonaws.com/dev-or-devrl-s3-bucket/sample-apps/ebikes/fusex1.jpg'},</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1462,8 +1466,12 @@
       <c r="S3" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="T3" s="2" t="str">
+        <f t="shared" ref="T3:T17" si="0">"{id: " &amp; TEXT(ROW(A2), 0) &amp; ", name: '" &amp; C3  &amp; "', price: " &amp; TEXT(E3, 0) &amp; ", imageSrc: '" &amp; M3 &amp; "'},"</f>
+        <v>{id: 2, name: 'FUSE X2', price: 2600, imageSrc: 'https://s3-us-west-2.amazonaws.com/dev-or-devrl-s3-bucket/sample-apps/ebikes/fusex2.jpg'},</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1521,8 +1529,12 @@
       <c r="S4" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="T4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{id: 3, name: 'FUSE X3', price: 2700, imageSrc: 'https://s3-us-west-2.amazonaws.com/dev-or-devrl-s3-bucket/sample-apps/ebikes/fusex3.jpg'},</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1580,8 +1592,12 @@
       <c r="S5" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="T5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{id: 4, name: 'FUSE X4', price: 2800, imageSrc: 'https://s3-us-west-2.amazonaws.com/dev-or-devrl-s3-bucket/sample-apps/ebikes/fusex4.jpg'},</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1639,8 +1655,12 @@
       <c r="S6" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="T6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{id: 5, name: 'DYNAMO X1', price: 7000, imageSrc: 'https://s3-us-west-2.amazonaws.com/dev-or-devrl-s3-bucket/sample-apps/ebikes/dynamox1.jpg'},</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1698,8 +1718,12 @@
       <c r="S7" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="T7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{id: 6, name: 'DYNAMO X2', price: 7200, imageSrc: 'https://s3-us-west-2.amazonaws.com/dev-or-devrl-s3-bucket/sample-apps/ebikes/dynamox2.jpg'},</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1757,8 +1781,12 @@
       <c r="S8" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="T8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{id: 7, name: 'DYNAMO X3', price: 7400, imageSrc: 'https://s3-us-west-2.amazonaws.com/dev-or-devrl-s3-bucket/sample-apps/ebikes/dynamox3.jpg'},</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1816,8 +1844,12 @@
       <c r="S9" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="T9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{id: 8, name: 'DYNAMO X4', price: 7800, imageSrc: 'https://s3-us-west-2.amazonaws.com/dev-or-devrl-s3-bucket/sample-apps/ebikes/dynamox4.jpg'},</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1875,8 +1907,12 @@
       <c r="S10" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="T10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{id: 9, name: 'ELECTRA X1', price: 4000, imageSrc: 'https://s3-us-west-2.amazonaws.com/dev-or-devrl-s3-bucket/sample-apps/ebikes/electrax1.jpg'},</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1934,8 +1970,12 @@
       <c r="S11" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="T11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{id: 10, name: 'ELECTRA X2', price: 4300, imageSrc: 'https://s3-us-west-2.amazonaws.com/dev-or-devrl-s3-bucket/sample-apps/ebikes/electrax2.jpg'},</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1993,8 +2033,12 @@
       <c r="S12" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="T12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{id: 11, name: 'ELECTRA X3', price: 4600, imageSrc: 'https://s3-us-west-2.amazonaws.com/dev-or-devrl-s3-bucket/sample-apps/ebikes/electrax3.jpg'},</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -2052,8 +2096,12 @@
       <c r="S13" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="T13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{id: 12, name: 'ELECTRA X4', price: 4900, imageSrc: 'https://s3-us-west-2.amazonaws.com/dev-or-devrl-s3-bucket/sample-apps/ebikes/electrax4.jpg'},</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -2111,8 +2159,12 @@
       <c r="S14" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="T14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{id: 13, name: 'VOLT X1', price: 1200, imageSrc: 'https://s3-us-west-2.amazonaws.com/dev-or-devrl-s3-bucket/sample-apps/ebikes/voltx1.jpg'},</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -2170,8 +2222,12 @@
       <c r="S15" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="T15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{id: 14, name: 'VOLT X2', price: 1400, imageSrc: 'https://s3-us-west-2.amazonaws.com/dev-or-devrl-s3-bucket/sample-apps/ebikes/voltx2.jpg'},</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -2229,8 +2285,12 @@
       <c r="S16" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="T16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{id: 15, name: 'VOLT X3', price: 1800, imageSrc: 'https://s3-us-west-2.amazonaws.com/dev-or-devrl-s3-bucket/sample-apps/ebikes/voltx3.jpg'},</v>
+      </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -2287,9 +2347,14 @@
       </c>
       <c r="S17" s="2" t="s">
         <v>120</v>
+      </c>
+      <c r="T17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{id: 16, name: 'VOLT X4', price: 1900, imageSrc: 'https://s3-us-west-2.amazonaws.com/dev-or-devrl-s3-bucket/sample-apps/ebikes/voltx4.jpg'},</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>